--- a/public/PasswordTemplate.xlsx
+++ b/public/PasswordTemplate.xlsx
@@ -27,41 +27,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>password</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dsfgfdsgsdfg</t>
+    <t>aaaaa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dsgfdsgsdfgdf</t>
+    <t>bbbbb</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tewrtwert</t>
+    <t>ccccc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>wert</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>erwtwertrew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewtrwetrew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>twertwretrewt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ewtwretwret</t>
+    <t>ddddd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +429,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,53 +451,49 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>222222333</v>
+        <v>22222</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>2343254</v>
+        <v>33333</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
+      <c r="A5" s="3">
+        <v>44444</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
+      <c r="A6" s="3">
+        <v>55555</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
